--- a/data/trans_bre/P36_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,12 +652,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,27 +667,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>-18,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-34,1%</t>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-7,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-35,66%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-48,64%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-37,03%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,36</t>
+          <t>-3,8; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,84</t>
+          <t>-1,07; 1,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,05</t>
+          <t>-1,77; 1,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,54</t>
+          <t>-3,72; 0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,86; 153,56</t>
+          <t>-5,07; -0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,87; 186,49</t>
+          <t>-5,77; -0,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,44; 121,13</t>
+          <t>-85,03; 160,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,27; 44,28</t>
+          <t>-51,02; 164,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-68,72; 113,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-68,65; 32,57</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-72,17; -12,7</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-55,87; -1,92</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-3,44</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-68,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-28,22%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>466,55%</t>
+          <t>-69,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-27,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-50,4%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,16; -1,15</t>
+          <t>-4,93; -1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; -0,38</t>
+          <t>-3,93; -0,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,03</t>
+          <t>-2,41; 1,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,94</t>
+          <t>-1,09; 2,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-2,19; 3,31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 0,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-92,28; -4,89</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-72,06; 75,53</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,34; 8,81</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-71,89; 101,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-57,42; 315,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-71,82; 448,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-80,9; 28,44</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-46,94%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-44,64%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>207,34%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>219,24%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-63,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,43</t>
+          <t>-5,11; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,81</t>
+          <t>-0,76; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-7,81; 1,09</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-56,18%</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,86%</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-56,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>-22,7%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-26,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-40,66%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-39,48%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; -0,16</t>
+          <t>-3,02; -0,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,56</t>
+          <t>-1,53; 0,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,89</t>
+          <t>-1,22; 0,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,01</t>
+          <t>-2,16; 0,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,49; -0,98</t>
+          <t>-3,82; -0,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,41; 45,54</t>
+          <t>-5,34; -0,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 67,95</t>
+          <t>-82,38; -4,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,84; 91,34</t>
+          <t>-59,13; 35,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-48,92; 70,52</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-59,36; 28,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-65,87; -4,73</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-57,77; -14,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P36_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P36_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,267 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,05</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-18,15%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,61%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-7,42%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-35,66%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-48,64%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-37,03%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2106238901004346</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3992343358310071</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1550349773397484</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.357398020179811</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-2.490651021776478</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-3.197606653164429</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1215603215928833</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.24754254553691</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.09087458420906137</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.3626555853249494</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.4863887144314579</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.3835770752534218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 1,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 1,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 1,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,72; 0,55</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; -0,56</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; -0,37</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-85,03; 160,64</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,02; 164,91</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-68,72; 113,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-68,65; 32,57</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-72,17; -12,7</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-55,87; -1,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.900385531122492</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.062480749472886</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.837681363731581</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.746140277020023</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.070756089192754</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.887396452150131</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8310577431617751</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.516541529279276</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6940661379850185</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.6883972463800182</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.7217408953247967</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.569235842551949</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.267416152792948</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.760932705303235</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.080155091767206</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.510153181570373</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.5647385241493034</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.4631321473033767</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.71528063083195</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.717539514057833</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.11969337106583</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.3106459300059091</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>-0.1269833499194984</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.04301982411430331</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,44</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-69,14%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-27,42%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,65%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,17%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-50,4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; -1,16</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; -0,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 1,18</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 2,32</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 3,31</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 0,71</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-92,34; 8,81</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-71,89; 101,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-57,42; 315,59</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-71,82; 448,43</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-80,9; 28,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.251392192554012</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.885933021948803</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5725081066236277</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.4161271629587439</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.3712995573739924</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-3.449460555655002</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.6862255907331565</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2493916451616216</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2900239052111003</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.171701345505254</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.5074058540524825</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,31</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-44,64%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>219,24%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-63,5%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.476730326483767</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.810307583185009</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.276230311307156</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.011335655548903</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.188372205167359</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-7.758464336658223</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.9221016804236086</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.706871246161403</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5629137104181896</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.7181824957977873</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.8102656037001149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 2,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,51</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 4,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,81; 1,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.036384519013797</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.3433461215861301</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.222616404907442</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.391904749009432</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.31057338244681</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.566607806333726</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>0.1664138131694496</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.100789584016795</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.405499144295677</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>4.484285729943111</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.2535934760487024</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +927,231 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,12</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-56,71%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-22,7%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-7,94%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-26,42%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-40,66%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-39,48%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.9331893658159883</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9571991083022277</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.492145095426646</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.312730549307925</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.4082064589433049</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.163681520262237</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.6504731837694779</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; -0,18</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 0,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 0,87</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 0,5</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; -0,21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; -0,99</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-82,38; -4,35</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-59,13; 35,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-48,92; 70,52</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-59,36; 28,65</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-65,87; -4,73</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-57,77; -14,13</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.101063647353844</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8260186485323229</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.828586470503575</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.095194470424668</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.138487262537373</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.929898289635122</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.9580347496681787</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.087406076764442</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4164857950462793</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1302097322266518</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.7409100745380502</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.788199869550498</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-3.233038772969478</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5428336420149023</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.222715707261777</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.07157369734724535</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2654449922795874</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.4066418948027822</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.4059239482213997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.550089316381724</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.485277230684642</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.181143565787558</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.140902584118254</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.821695142810239</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-5.486017769277072</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8128891110851748</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5926073284252849</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4905509625292204</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.5926463139768032</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.6587121279836599</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.5856833842017105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.08896700073109184</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4952139414571143</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8937220814403743</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5346729096298189</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.2143209721681292</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-1.127609811541654</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.01193388433050638</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3481249873106275</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7476981247144469</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3003681833606728</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>-0.04727225683060146</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>-0.1592914145406208</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1159,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
